--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Hong Kong\Models\eps-hongkong\InputData\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -698,9 +698,11 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -708,128 +710,131 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="8">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="6">
         <v>2018</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2019</v>
       </c>
-      <c r="D1" s="6">
+      <c r="E1" s="6">
         <v>2020</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2021</v>
       </c>
-      <c r="F1" s="6">
+      <c r="G1" s="6">
         <v>2022</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2023</v>
       </c>
-      <c r="H1" s="6">
+      <c r="I1" s="6">
         <v>2024</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2025</v>
       </c>
-      <c r="J1" s="6">
+      <c r="K1" s="6">
         <v>2026</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2027</v>
       </c>
-      <c r="L1" s="6">
+      <c r="M1" s="6">
         <v>2028</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2029</v>
       </c>
-      <c r="N1" s="6">
+      <c r="O1" s="6">
         <v>2030</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2031</v>
       </c>
-      <c r="P1" s="6">
+      <c r="Q1" s="6">
         <v>2032</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2033</v>
       </c>
-      <c r="R1" s="6">
+      <c r="S1" s="6">
         <v>2034</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2035</v>
       </c>
-      <c r="T1" s="6">
+      <c r="U1" s="6">
         <v>2036</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2037</v>
       </c>
-      <c r="V1" s="6">
+      <c r="W1" s="6">
         <v>2038</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2039</v>
       </c>
-      <c r="X1" s="6">
+      <c r="Y1" s="6">
         <v>2040</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2041</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="AA1" s="6">
         <v>2042</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2043</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AC1" s="6">
         <v>2044</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2045</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AE1" s="6">
         <v>2046</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2047</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AG1" s="6">
         <v>2048</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>2049</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AI1" s="6">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="5">
+        <f>C2</f>
+        <v>3729.0669216470392</v>
+      </c>
+      <c r="C2" s="5">
         <f>Data!B6</f>
         <v>3729.0669216470392</v>
       </c>
-      <c r="C2" s="5">
-        <f>$B2</f>
-        <v>3729.0669216470392</v>
-      </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:AH2" si="0">$B2</f>
+        <f>$C2</f>
         <v>3729.0669216470392</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E2:AI2" si="0">$C2</f>
         <v>3729.0669216470392</v>
       </c>
       <c r="F2" s="5">
@@ -945,16 +950,39 @@
         <v>3729.0669216470392</v>
       </c>
       <c r="AH2" s="5">
+        <f t="shared" si="0"/>
+        <v>3729.0669216470392</v>
+      </c>
+      <c r="AI2" s="5">
         <f t="shared" si="0"/>
         <v>3729.0669216470392</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1188,32 +1216,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB7CAAC9-5638-4414-ABE7-0068259721E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{988BCFD1-43D1-4817-929E-7D1A76297448}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57C2BAF-AA61-45F3-8996-4870774D084E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{988BCFD1-43D1-4817-929E-7D1A76297448}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB7CAAC9-5638-4414-ABE7-0068259721E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E57C2BAF-AA61-45F3-8996-4870774D084E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>